--- a/template/template_duk.xlsx
+++ b/template/template_duk.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\idea\kepegawaian\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\laporan-kepegawaian\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3444EE-C5DF-4C65-9CB1-84B7B91E0523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8E71A8-4CAC-4879-849D-6AE12409CC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{2EA896B0-6267-4367-A70E-58E4506E255B}"/>
   </bookViews>
@@ -145,7 +145,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +167,28 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -205,23 +227,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -541,7 +565,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -563,190 +587,190 @@
     <col min="16" max="16" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
+    <row r="2" spans="1:17" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6" t="s">
+      <c r="H4" s="4"/>
+      <c r="I4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6" t="s">
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6" t="s">
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="P4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="1"/>
+      <c r="Q4" s="5"/>
     </row>
-    <row r="5" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="2" t="s">
+    <row r="5" spans="1:17" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="1"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="5"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="O6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="P6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Q6" s="1"/>
+      <c r="Q6" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="10">
